--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1108982.632454054</v>
+        <v>1106281.982830747</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>25.67913628361561</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>8.752991415778714</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>5.947356122232898</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>18.56117045231594</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>61.90919546454395</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>62.06828345299802</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>236.0220194288595</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.42130226825859</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9653033936935</v>
       </c>
       <c r="I5" t="n">
-        <v>99.38935721520093</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>64.45828691911134</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4823667709296</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1151380880864</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>383.0198440937141</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8018133893748</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>97.34583147339771</v>
       </c>
       <c r="I6" t="n">
-        <v>36.31604239259347</v>
+        <v>36.31604239259346</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,16 +1026,16 @@
         <v>143.0466996907029</v>
       </c>
       <c r="T6" t="n">
-        <v>193.950580588878</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8399542011172</v>
       </c>
       <c r="V6" t="n">
-        <v>202.5661285505517</v>
+        <v>39.72016663385564</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>159.5819666321977</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5810943629795</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>222.4230353577824</v>
       </c>
       <c r="U7" t="n">
-        <v>16.23742529643437</v>
+        <v>286.2485286662292</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1151,7 +1151,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>264.6530118728071</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>25.58299561021714</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>182.9387099570811</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>96.18174860299344</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>73.45149839453047</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>270.1915102239675</v>
       </c>
       <c r="I11" t="n">
-        <v>22.6077720323801</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458123</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035153</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034032</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146331</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>39.88581893613711</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>196.2511428064776</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>314.9813656337144</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754683</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>81.37259901119296</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>164.660199817103</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833826</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>46.52295781333198</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206833</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986266</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428128</v>
       </c>
       <c r="E22" t="n">
-        <v>60.66149661128674</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>19.91555826189108</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408059</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833807</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.17049831699856</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833812</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229308</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>141.3831318263027</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>18.70843787977245</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>258.7598825930169</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>36.43062059490447</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3667,13 +3667,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>72.97607332171683</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833835</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833807</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>35.55160172423425</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>60.86846495359855</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410.8916005921556</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C2" t="n">
-        <v>410.8916005921556</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D2" t="n">
-        <v>410.8916005921556</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E2" t="n">
-        <v>410.8916005921556</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429521</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917602</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052543</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991318</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>1028.916998507423</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298172</v>
+        <v>814.482942342551</v>
       </c>
       <c r="U2" t="n">
-        <v>677.2692571593336</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="V2" t="n">
-        <v>677.2692571593336</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="W2" t="n">
-        <v>677.2692571593336</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="X2" t="n">
-        <v>410.8916005921556</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="Y2" t="n">
-        <v>410.8916005921556</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>672.781252353926</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C3" t="n">
-        <v>498.3282230727989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>349.3938134115477</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>349.3938134115477</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>503.6022960313625</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>713.6562631339676</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>883.5948104606975</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>1000.652410494101</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4437,22 +4437,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="U3" t="n">
-        <v>1048.848089579527</v>
+        <v>629.9105956742757</v>
       </c>
       <c r="V3" t="n">
-        <v>1048.848089579527</v>
+        <v>629.9105956742757</v>
       </c>
       <c r="W3" t="n">
-        <v>1048.848089579527</v>
+        <v>611.1619386517343</v>
       </c>
       <c r="X3" t="n">
-        <v>840.9965893739941</v>
+        <v>403.3104384462014</v>
       </c>
       <c r="Y3" t="n">
-        <v>840.9965893739941</v>
+        <v>195.5501396812475</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4462,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434482</v>
+        <v>252.5678342013041</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434482</v>
+        <v>83.63165127339721</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375336</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>992.1602841949157</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>785.3732496054271</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T4" t="n">
-        <v>785.3732496054271</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U4" t="n">
-        <v>785.3732496054271</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V4" t="n">
-        <v>530.6887613995402</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="W4" t="n">
-        <v>264.3111048323622</v>
+        <v>434.2162990315438</v>
       </c>
       <c r="X4" t="n">
-        <v>36.32155393434482</v>
+        <v>434.2162990315438</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.32155393434482</v>
+        <v>434.2162990315438</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>381.9877278429709</v>
+        <v>749.0183768971187</v>
       </c>
       <c r="C5" t="n">
-        <v>381.9877278429709</v>
+        <v>749.0183768971187</v>
       </c>
       <c r="D5" t="n">
-        <v>381.9877278429709</v>
+        <v>749.0183768971187</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9877278429709</v>
+        <v>363.2301242988744</v>
       </c>
       <c r="F5" t="n">
-        <v>143.5816476117996</v>
+        <v>356.284623549671</v>
       </c>
       <c r="G5" t="n">
-        <v>131.0348776438616</v>
+        <v>343.737853581733</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0348776438616</v>
+        <v>30.64158752749713</v>
       </c>
       <c r="I5" t="n">
-        <v>30.64158752749708</v>
+        <v>30.64158752749713</v>
       </c>
       <c r="J5" t="n">
-        <v>93.51877468281327</v>
+        <v>93.51877468281418</v>
       </c>
       <c r="K5" t="n">
-        <v>238.4938972452962</v>
+        <v>238.4938972452974</v>
       </c>
       <c r="L5" t="n">
-        <v>455.2501182192518</v>
+        <v>455.2501182192537</v>
       </c>
       <c r="M5" t="n">
-        <v>728.1026159494177</v>
+        <v>728.1026159494202</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.983960730195</v>
+        <v>1009.983960730198</v>
       </c>
       <c r="O5" t="n">
-        <v>1262.821260145361</v>
+        <v>1262.821260145363</v>
       </c>
       <c r="P5" t="n">
-        <v>1444.111044739589</v>
+        <v>1444.111044739592</v>
       </c>
       <c r="Q5" t="n">
-        <v>1532.079376374854</v>
+        <v>1532.079376374857</v>
       </c>
       <c r="R5" t="n">
-        <v>1532.079376374854</v>
+        <v>1532.079376374857</v>
       </c>
       <c r="S5" t="n">
-        <v>1532.079376374854</v>
+        <v>1466.969995648481</v>
       </c>
       <c r="T5" t="n">
-        <v>1319.470925091086</v>
+        <v>1466.969995648481</v>
       </c>
       <c r="U5" t="n">
-        <v>1065.819270456656</v>
+        <v>1466.969995648481</v>
       </c>
       <c r="V5" t="n">
-        <v>734.756383113085</v>
+        <v>1135.907108304911</v>
       </c>
       <c r="W5" t="n">
-        <v>381.9877278429709</v>
+        <v>1135.907108304911</v>
       </c>
       <c r="X5" t="n">
-        <v>381.9877278429709</v>
+        <v>1135.907108304911</v>
       </c>
       <c r="Y5" t="n">
-        <v>381.9877278429709</v>
+        <v>749.0183768971187</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>610.9989948763916</v>
+        <v>489.0410202739068</v>
       </c>
       <c r="C6" t="n">
-        <v>610.9989948763916</v>
+        <v>314.5879909927799</v>
       </c>
       <c r="D6" t="n">
-        <v>462.0645852151404</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="E6" t="n">
-        <v>302.8271302096849</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="F6" t="n">
-        <v>302.8271302096849</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="G6" t="n">
         <v>165.6535813315286</v>
       </c>
       <c r="H6" t="n">
-        <v>67.32445863112684</v>
+        <v>67.32445863112689</v>
       </c>
       <c r="I6" t="n">
-        <v>30.64158752749708</v>
+        <v>30.64158752749713</v>
       </c>
       <c r="J6" t="n">
-        <v>49.27296248835583</v>
+        <v>49.27296248835594</v>
       </c>
       <c r="K6" t="n">
-        <v>159.2717745831303</v>
+        <v>202.9042018085642</v>
       </c>
       <c r="L6" t="n">
-        <v>538.4614202359066</v>
+        <v>582.0938474613412</v>
       </c>
       <c r="M6" t="n">
-        <v>784.4749755318425</v>
+        <v>828.1074027572771</v>
       </c>
       <c r="N6" t="n">
-        <v>1051.408422516029</v>
+        <v>1095.040849741463</v>
       </c>
       <c r="O6" t="n">
-        <v>1317.01300885146</v>
+        <v>1317.013008851463</v>
       </c>
       <c r="P6" t="n">
-        <v>1475.832169705186</v>
+        <v>1475.832169705189</v>
       </c>
       <c r="Q6" t="n">
-        <v>1532.079376374854</v>
+        <v>1532.079376374857</v>
       </c>
       <c r="R6" t="n">
-        <v>1532.079376374854</v>
+        <v>1532.079376374857</v>
       </c>
       <c r="S6" t="n">
-        <v>1387.587760525659</v>
+        <v>1387.587760525662</v>
       </c>
       <c r="T6" t="n">
-        <v>1191.678083163156</v>
+        <v>1387.587760525662</v>
       </c>
       <c r="U6" t="n">
-        <v>1191.678083163156</v>
+        <v>1159.466594665947</v>
       </c>
       <c r="V6" t="n">
-        <v>987.0658321019926</v>
+        <v>1119.345214227709</v>
       </c>
       <c r="W6" t="n">
-        <v>987.0658321019926</v>
+        <v>865.1078574995076</v>
       </c>
       <c r="X6" t="n">
-        <v>779.2143318964597</v>
+        <v>657.2563572939748</v>
       </c>
       <c r="Y6" t="n">
-        <v>779.2143318964597</v>
+        <v>657.2563572939748</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>327.6481744377431</v>
+        <v>309.5941743913125</v>
       </c>
       <c r="C7" t="n">
-        <v>327.6481744377431</v>
+        <v>309.5941743913125</v>
       </c>
       <c r="D7" t="n">
-        <v>177.5315350254074</v>
+        <v>309.5941743913125</v>
       </c>
       <c r="E7" t="n">
-        <v>177.5315350254074</v>
+        <v>309.5941743913125</v>
       </c>
       <c r="F7" t="n">
-        <v>30.64158752749708</v>
+        <v>309.5941743913125</v>
       </c>
       <c r="G7" t="n">
-        <v>30.64158752749708</v>
+        <v>148.4002687022239</v>
       </c>
       <c r="H7" t="n">
-        <v>30.64158752749708</v>
+        <v>148.4002687022239</v>
       </c>
       <c r="I7" t="n">
-        <v>30.64158752749708</v>
+        <v>30.64158752749713</v>
       </c>
       <c r="J7" t="n">
-        <v>30.64158752749708</v>
+        <v>30.64158752749713</v>
       </c>
       <c r="K7" t="n">
-        <v>157.2595961746999</v>
+        <v>157.2595961747</v>
       </c>
       <c r="L7" t="n">
-        <v>374.8134887914614</v>
+        <v>374.8134887914616</v>
       </c>
       <c r="M7" t="n">
-        <v>614.582688343768</v>
+        <v>614.5826883437683</v>
       </c>
       <c r="N7" t="n">
-        <v>854.0853286630856</v>
+        <v>854.085328663086</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.288486109131</v>
+        <v>1059.288486109132</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.354555016228</v>
+        <v>1211.354555016229</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.202138767122</v>
+        <v>1233.202138767123</v>
       </c>
       <c r="R7" t="n">
-        <v>1112.821005058587</v>
+        <v>1112.821005058588</v>
       </c>
       <c r="S7" t="n">
-        <v>1112.821005058587</v>
+        <v>1112.821005058588</v>
       </c>
       <c r="T7" t="n">
-        <v>888.1512723739587</v>
+        <v>888.1512723739592</v>
       </c>
       <c r="U7" t="n">
-        <v>871.7498326805907</v>
+        <v>599.0113444282731</v>
       </c>
       <c r="V7" t="n">
-        <v>617.0653444747038</v>
+        <v>599.0113444282731</v>
       </c>
       <c r="W7" t="n">
-        <v>327.6481744377431</v>
+        <v>309.5941743913125</v>
       </c>
       <c r="X7" t="n">
-        <v>327.6481744377431</v>
+        <v>309.5941743913125</v>
       </c>
       <c r="Y7" t="n">
-        <v>327.6481744377431</v>
+        <v>309.5941743913125</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2295.013053781158</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="C8" t="n">
-        <v>1926.050536840746</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="D8" t="n">
-        <v>1567.784838233996</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2295.013053781158</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>2295.013053781158</v>
+        <v>2000.825031735865</v>
       </c>
       <c r="X8" t="n">
-        <v>2295.013053781158</v>
+        <v>1974.983622028575</v>
       </c>
       <c r="Y8" t="n">
-        <v>2295.013053781158</v>
+        <v>1974.983622028575</v>
       </c>
     </row>
     <row r="9">
@@ -4872,37 +4872,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2238.100841080694</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2561.393271046731</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>813.841548125043</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>644.9053651971361</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>494.7887257848004</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8756322024072</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
         <v>51.2467865680031</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1451.659544360274</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1228.681063555009</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>939.5627260588469</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.643294372448</v>
+        <v>939.5627260588469</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.643294372448</v>
+        <v>650.1455560218863</v>
       </c>
       <c r="X10" t="n">
-        <v>995.4900129552827</v>
+        <v>422.1560051238689</v>
       </c>
       <c r="Y10" t="n">
-        <v>995.4900129552827</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2020.823851532407</v>
+        <v>1535.25883268935</v>
       </c>
       <c r="C11" t="n">
-        <v>1651.861334591996</v>
+        <v>1535.25883268935</v>
       </c>
       <c r="D11" t="n">
-        <v>1293.595635985246</v>
+        <v>1176.9931340826</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>1176.9931340826</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738907</v>
+        <v>766.0072292929922</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035378</v>
+        <v>351.4317836226389</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469196</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386829</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420332</v>
+        <v>704.5155104420317</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301227</v>
+        <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878112</v>
+        <v>1851.484858878109</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765428</v>
+        <v>2485.180661765424</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687105</v>
+        <v>3070.2263776871</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856288</v>
+        <v>3535.048359856281</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882247</v>
+        <v>3835.93756388224</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234598</v>
+        <v>3925.55331123459</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234598</v>
+        <v>3826.58813245566</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750378</v>
+        <v>3622.78602197144</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.260484382984</v>
+        <v>3369.295305604048</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.197597039413</v>
+        <v>3038.232418260478</v>
       </c>
       <c r="W11" t="n">
-        <v>2784.428941769299</v>
+        <v>2685.463762990364</v>
       </c>
       <c r="X11" t="n">
-        <v>2410.963183508219</v>
+        <v>2311.998004729284</v>
       </c>
       <c r="Y11" t="n">
-        <v>2020.823851532407</v>
+        <v>1921.858672753472</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326289</v>
+        <v>312.3935880326288</v>
       </c>
       <c r="G12" t="n">
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.3627498550305</v>
+        <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469196</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469196</v>
+        <v>196.8120623792128</v>
       </c>
       <c r="K12" t="n">
-        <v>247.7399244450284</v>
+        <v>477.1621322376502</v>
       </c>
       <c r="L12" t="n">
-        <v>671.0277318723386</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
-        <v>1184.341506116229</v>
+        <v>977.3905023848067</v>
       </c>
       <c r="N12" t="n">
-        <v>1725.649813467296</v>
+        <v>1518.698809735874</v>
       </c>
       <c r="O12" t="n">
-        <v>2198.621366333045</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>634.6419871169593</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="C13" t="n">
-        <v>634.6419871169593</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="D13" t="n">
-        <v>484.5253477046235</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="E13" t="n">
-        <v>336.6122541222304</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="F13" t="n">
-        <v>336.6122541222304</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="G13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="H13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469196</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600402</v>
+        <v>139.0818334600399</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457709</v>
+        <v>368.4550473457703</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888925</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779222</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542995</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.96773471585</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082523</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551107</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014275</v>
+        <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370158</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920203</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1378.397311360492</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1123.712823154605</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1083.424117158507</v>
+        <v>834.2956531176426</v>
       </c>
       <c r="X13" t="n">
-        <v>855.4345662604894</v>
+        <v>606.3061022196252</v>
       </c>
       <c r="Y13" t="n">
-        <v>634.6419871169593</v>
+        <v>408.0726246373246</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555042</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469741</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.39853312617</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856056</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594976</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619164</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608048</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>301.0525042748309</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>791.784837118582</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1383.80319137071</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>2005.899154770046</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>867.8413048512241</v>
+        <v>494.0589900220733</v>
       </c>
       <c r="C16" t="n">
-        <v>698.9051219233172</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D16" t="n">
-        <v>548.7884825109816</v>
+        <v>175.0061676818307</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109816</v>
+        <v>175.0061676818307</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130712</v>
+        <v>175.0061676818307</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876501</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410167</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.696992124549</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>2042.373557965859</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1787.689069759972</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.271899723011</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1270.282348824994</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>1049.489769681464</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835329</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,16 +5671,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.228921741679</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>139.234765840794</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.3164745246297</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C22" t="n">
-        <v>701.3802915967242</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D22" t="n">
-        <v>551.2636521843884</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.7575184984</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.899304487669</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597622</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474265</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>113.9333885650335</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>113.9333885650336</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>113.9333885650336</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>113.9333885650336</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6151,46 +6151,46 @@
         <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614389</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179088</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
         <v>1307.627092998424</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6461,10 +6461,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835329</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711972</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>549.614540988804</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258107</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.82229605222</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.228921741679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,28 +6692,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6722,10 +6722,10 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>724.7519863413024</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C34" t="n">
-        <v>555.8158034133955</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998284</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998284</v>
       </c>
       <c r="F34" t="n">
-        <v>261.012762333092</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6862,46 +6862,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1355.18258121309</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y34" t="n">
-        <v>906.4004511715422</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684978</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327647</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048579</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D37" t="n">
-        <v>444.701316492522</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297707</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7096,19 +7096,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="38">
@@ -7166,55 +7166,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311992</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7557007032923</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>482.6390612909565</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E40" t="n">
-        <v>334.7259677085635</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F40" t="n">
-        <v>261.012762333092</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614389</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,13 +7397,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7433,25 +7433,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239597</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397185</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N42" t="n">
-        <v>2149.810879820877</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7582,37 +7582,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1108.373486799501</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y43" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7640,7 +7640,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7649,7 +7649,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7670,25 +7670,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.9553291057243</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778174</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="M3" t="n">
-        <v>71.18793141915887</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>26.13373767211337</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.58458098752831</v>
+        <v>34.58458098752826</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>44.07315881356936</v>
       </c>
       <c r="L6" t="n">
-        <v>186.8284110501529</v>
+        <v>186.8284110501535</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>44.07315881356772</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>21.89339468985682</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>308.4788716777313</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>19.37720645670978</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114092</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>246.6371794004539</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>22.33351054561723</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>50.29152613729315</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613728928</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>84.16945386597396</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>121.5252517313174</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788563</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>205.614685510496</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393108</v>
       </c>
       <c r="E22" t="n">
-        <v>85.77246603528243</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>61.35027805667444</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>46.45968844823122</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393078</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.4141550350934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823105</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>145.1398665102883</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>126.7126101431588</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>27.76311574357408</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>110.0033420516647</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>43.26526345295041</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>72.44497470121442</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823111</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>190.1580536648029</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>191.2691783702294</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>981426.7361131124</v>
+        <v>981426.7361131125</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>876409.9323886966</v>
+        <v>876409.9323886959</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>953517.7790798958</v>
+        <v>953517.7790798963</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409666</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>958766.3020409668</v>
+        <v>958766.3020409667</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26317,22 @@
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876636</v>
+        <v>423807.2415876632</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918677</v>
+        <v>461540.8686918676</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="I2" t="n">
         <v>464109.2948217536</v>
-      </c>
-      <c r="I2" t="n">
-        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217536</v>
@@ -26344,16 +26344,16 @@
         <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="N2" t="n">
         <v>464109.2948217535</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>464109.2948217535</v>
+      </c>
+      <c r="P2" t="n">
         <v>464109.2948217536</v>
-      </c>
-      <c r="O2" t="n">
-        <v>464109.2948217536</v>
-      </c>
-      <c r="P2" t="n">
-        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132064.9098103518</v>
+        <v>132064.9098103524</v>
       </c>
       <c r="D3" t="n">
-        <v>266112.9182196376</v>
+        <v>266112.9182196372</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.119035708</v>
+        <v>325187.1190357064</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051362</v>
+        <v>166521.3471051383</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30705.53736648319</v>
+        <v>30705.53736648339</v>
       </c>
       <c r="L3" t="n">
-        <v>65187.38037950893</v>
+        <v>65187.3803795087</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456857</v>
+        <v>84929.59434456815</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848864</v>
+        <v>43782.40655848928</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224802</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
-        <v>215693.7182853461</v>
+        <v>215693.7182853459</v>
       </c>
       <c r="D4" t="n">
         <v>140338.6838374607</v>
@@ -26436,28 +26436,28 @@
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.0322517935</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
+        <v>11167.03225179353</v>
+      </c>
+      <c r="N4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="N4" t="n">
-        <v>11167.03225179349</v>
-      </c>
       <c r="O4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72540.50950589713</v>
+        <v>72540.50950589718</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214723</v>
+        <v>86093.7221621471</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-522264.1317425157</v>
+        <v>-522264.1317425155</v>
       </c>
       <c r="C6" t="n">
-        <v>51799.88007036793</v>
+        <v>51799.88007036742</v>
       </c>
       <c r="D6" t="n">
-        <v>-27290.35682497974</v>
+        <v>-27290.35682497951</v>
       </c>
       <c r="E6" t="n">
-        <v>1458.489095320925</v>
+        <v>1248.52485147744</v>
       </c>
       <c r="F6" t="n">
-        <v>183716.893442325</v>
+        <v>183670.9884467571</v>
       </c>
       <c r="G6" t="n">
-        <v>340652.4965104735</v>
+        <v>340617.7585850385</v>
       </c>
       <c r="H6" t="n">
-        <v>351819.732746053</v>
+        <v>351784.9948206174</v>
       </c>
       <c r="I6" t="n">
-        <v>351819.732746053</v>
+        <v>351784.9948206173</v>
       </c>
       <c r="J6" t="n">
-        <v>282820.5783269388</v>
+        <v>282785.8404015031</v>
       </c>
       <c r="K6" t="n">
-        <v>321114.1953795698</v>
+        <v>321079.4574541338</v>
       </c>
       <c r="L6" t="n">
-        <v>286632.352366544</v>
+        <v>286597.6144411085</v>
       </c>
       <c r="M6" t="n">
-        <v>266890.1384014843</v>
+        <v>266855.4004760492</v>
       </c>
       <c r="N6" t="n">
-        <v>308037.3261875643</v>
+        <v>308002.5882621278</v>
       </c>
       <c r="O6" t="n">
-        <v>348796.4347688282</v>
+        <v>348761.6968433925</v>
       </c>
       <c r="P6" t="n">
-        <v>351819.7327460531</v>
+        <v>351784.9948206172</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>716.7570176605209</v>
+        <v>716.7570176605211</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494557</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.0198440937135</v>
+        <v>383.0198440937141</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086495</v>
+        <v>981.3883278086475</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26817,19 +26817,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>102.7020038910425</v>
+        <v>102.7020038910429</v>
       </c>
       <c r="D3" t="n">
-        <v>217.3078744570182</v>
+        <v>217.307874457018</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770179</v>
+        <v>278.1053753770168</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218283</v>
+        <v>145.8707812218299</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.3059640922072</v>
+        <v>119.305964092208</v>
       </c>
       <c r="D4" t="n">
-        <v>257.5649880063253</v>
+        <v>257.5649880063246</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086107</v>
+        <v>340.8034957086088</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173566</v>
+        <v>178.7569625173594</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922072</v>
+        <v>119.305964092208</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063255</v>
+        <v>257.5649880063246</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086105</v>
+        <v>340.8034957086088</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173568</v>
+        <v>178.7569625173594</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922072</v>
+        <v>119.305964092208</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063253</v>
+        <v>257.5649880063246</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086107</v>
+        <v>340.8034957086088</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173566</v>
+        <v>178.7569625173594</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>127.0885569156067</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>242.3951764625038</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>219.9071313813217</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>233.1338127086037</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>86.7062775536684</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>65.4363194306659</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>170.8540263128519</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9653033936935</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.3893572152009</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3593638980479</v>
+        <v>78.90107697893649</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4823667709296</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1151380880864</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>3.218094562339445</v>
       </c>
     </row>
     <row r="6">
@@ -27695,19 +27695,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8018133893748</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.436963001677682</v>
+        <v>4.436963001677654</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.950580588878</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399542011172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>30.2344585988736</v>
+        <v>193.0804205155696</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6984667036611</v>
+        <v>7.116500071463435</v>
       </c>
       <c r="H7" t="n">
         <v>150.735559994784</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5810943629795</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.978535422478188</v>
+        <v>1.97853542247816</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,10 +27828,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>270.0111033697949</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>63.09924659732781</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>344.1481050682519</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,25 +28059,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>11.72375040465641</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>129.5279067860437</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.599131043448146e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29499,7 +29499,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.799680487441947e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-1.456791136633773e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29679,7 +29679,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.881435246876463</v>
+        <v>2.881435246876465</v>
       </c>
       <c r="H5" t="n">
-        <v>29.50949872207359</v>
+        <v>29.5094987220736</v>
       </c>
       <c r="I5" t="n">
         <v>111.086532355205</v>
       </c>
       <c r="J5" t="n">
-        <v>244.5582147845815</v>
+        <v>244.5582147845816</v>
       </c>
       <c r="K5" t="n">
-        <v>366.5293687848622</v>
+        <v>366.5293687848624</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7120927214579</v>
+        <v>454.7120927214581</v>
       </c>
       <c r="M5" t="n">
-        <v>505.9548167930972</v>
+        <v>505.9548167930974</v>
       </c>
       <c r="N5" t="n">
-        <v>514.141694688285</v>
+        <v>514.1416946882852</v>
       </c>
       <c r="O5" t="n">
-        <v>485.4894229521572</v>
+        <v>485.4894229521573</v>
       </c>
       <c r="P5" t="n">
-        <v>414.3539902948944</v>
+        <v>414.3539902948945</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.1625905161309</v>
+        <v>311.162590516131</v>
       </c>
       <c r="R5" t="n">
-        <v>181.0009568266038</v>
+        <v>181.0009568266039</v>
       </c>
       <c r="S5" t="n">
-        <v>65.66070568819748</v>
+        <v>65.66070568819751</v>
       </c>
       <c r="T5" t="n">
         <v>12.61348279320173</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541703773835837</v>
+        <v>1.541703773835838</v>
       </c>
       <c r="H6" t="n">
         <v>14.88961276309875</v>
       </c>
       <c r="I6" t="n">
-        <v>53.0805904588216</v>
+        <v>53.08059045882162</v>
       </c>
       <c r="J6" t="n">
         <v>145.6571973342008</v>
       </c>
       <c r="K6" t="n">
-        <v>248.9513501812019</v>
+        <v>248.951350181202</v>
       </c>
       <c r="L6" t="n">
-        <v>334.7458128234348</v>
+        <v>334.7458128234349</v>
       </c>
       <c r="M6" t="n">
-        <v>390.6325746249838</v>
+        <v>390.6325746249839</v>
       </c>
       <c r="N6" t="n">
-        <v>400.971456511804</v>
+        <v>400.9714565118042</v>
       </c>
       <c r="O6" t="n">
-        <v>366.8105465757573</v>
+        <v>366.8105465757574</v>
       </c>
       <c r="P6" t="n">
-        <v>294.3978022160732</v>
+        <v>294.3978022160733</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7971343584132</v>
+        <v>196.7971343584133</v>
       </c>
       <c r="R6" t="n">
-        <v>95.72087115096545</v>
+        <v>95.72087115096548</v>
       </c>
       <c r="S6" t="n">
         <v>28.63647141313495</v>
       </c>
       <c r="T6" t="n">
-        <v>6.21414810594357</v>
+        <v>6.214148105943573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014278798576209</v>
+        <v>0.101427879857621</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,28 +31434,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.29251265479766</v>
+        <v>1.292512654797661</v>
       </c>
       <c r="H7" t="n">
         <v>11.49161251265557</v>
       </c>
       <c r="I7" t="n">
-        <v>38.86938056427875</v>
+        <v>38.86938056427876</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38064469419459</v>
+        <v>91.38064469419461</v>
       </c>
       <c r="K7" t="n">
         <v>150.1664702574009</v>
       </c>
       <c r="L7" t="n">
-        <v>192.1613814232813</v>
+        <v>192.1613814232814</v>
       </c>
       <c r="M7" t="n">
         <v>202.6072336970551</v>
       </c>
       <c r="N7" t="n">
-        <v>197.789686529173</v>
+        <v>197.7896865291731</v>
       </c>
       <c r="O7" t="n">
         <v>182.6907886981276</v>
@@ -31464,19 +31464,19 @@
         <v>156.3235305402552</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.2303096667386</v>
+        <v>108.2303096667387</v>
       </c>
       <c r="R7" t="n">
-        <v>58.11606900572025</v>
+        <v>58.11606900572026</v>
       </c>
       <c r="S7" t="n">
-        <v>22.52497053861013</v>
+        <v>22.52497053861014</v>
       </c>
       <c r="T7" t="n">
-        <v>5.522554070499093</v>
+        <v>5.522554070499095</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07050069026169065</v>
+        <v>0.07050069026169067</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485653</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508996</v>
+        <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380258</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307183</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726061</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216978</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857432</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898395</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294414</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615143</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895591</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356984</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475346</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188522</v>
+        <v>0.3898437041188518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969425</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191524</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596485</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>308.7796796009615</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>566.117821625642</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845335</v>
+        <v>219.8517740430757</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147145</v>
+        <v>678.1177801147139</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431814</v>
+        <v>620.3452877431808</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205475</v>
+        <v>497.881784020547</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697591</v>
+        <v>48.42963285697586</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780658</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190412</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236086</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737176</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691797</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836913</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619743</v>
+        <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509178</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263712</v>
+        <v>342.6467528263709</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973097</v>
+        <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050062</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761898</v>
+        <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916781</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570618</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929615</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826912</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>348.1857632660261</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745723</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>391.6330708361143</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>183.7183104822601</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>137.7376326175082</v>
       </c>
       <c r="O24" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745949</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>332.1692388321073</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>171.5999003578894</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M36" t="n">
-        <v>232.153703594058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>577.7447198439381</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>277.2922978908101</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>650.2626573149951</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>245.5483596572286</v>
       </c>
       <c r="M3" t="n">
-        <v>263.7138800015062</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.75061566860978</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.51231025789519</v>
+        <v>63.51231025789528</v>
       </c>
       <c r="K5" t="n">
-        <v>146.4395177398817</v>
+        <v>146.4395177398818</v>
       </c>
       <c r="L5" t="n">
-        <v>218.9456777514707</v>
+        <v>218.9456777514708</v>
       </c>
       <c r="M5" t="n">
-        <v>275.6085835658245</v>
+        <v>275.6085835658247</v>
       </c>
       <c r="N5" t="n">
-        <v>284.7286310916941</v>
+        <v>284.7286310916942</v>
       </c>
       <c r="O5" t="n">
-        <v>255.3912115304704</v>
+        <v>255.3912115304706</v>
       </c>
       <c r="P5" t="n">
-        <v>183.1209945396249</v>
+        <v>183.120994539625</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.85690064168145</v>
+        <v>88.85690064168156</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.81957066753409</v>
+        <v>18.81957066753415</v>
       </c>
       <c r="K6" t="n">
-        <v>111.1099112068429</v>
+        <v>155.1830700204123</v>
       </c>
       <c r="L6" t="n">
-        <v>383.0198440937135</v>
+        <v>383.0198440937141</v>
       </c>
       <c r="M6" t="n">
-        <v>248.4985407029655</v>
+        <v>248.4985407029656</v>
       </c>
       <c r="N6" t="n">
-        <v>269.6297444284708</v>
+        <v>269.6297444284709</v>
       </c>
       <c r="O6" t="n">
-        <v>268.2874609448806</v>
+        <v>224.214302131313</v>
       </c>
       <c r="P6" t="n">
-        <v>160.423394801743</v>
+        <v>160.4233948017431</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.8153602723917</v>
+        <v>56.81536027239179</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.896978431518</v>
+        <v>127.8969784315181</v>
       </c>
       <c r="L7" t="n">
         <v>219.7514066835975</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1911106588956</v>
+        <v>242.1911106588957</v>
       </c>
       <c r="N7" t="n">
-        <v>241.9218589084016</v>
+        <v>241.9218589084017</v>
       </c>
       <c r="O7" t="n">
-        <v>207.2759166121672</v>
+        <v>207.2759166121673</v>
       </c>
       <c r="P7" t="n">
         <v>153.6020898051487</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.06826641504426</v>
+        <v>22.06826641504431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>491.0077074256851</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35267,13 +35267,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.9556134883069083</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.547809004032</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276256</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517105</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584705</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932485</v>
+        <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077546</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062448</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151096</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156627</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>170.9382406266025</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457678</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625153</v>
+        <v>77.71774012105745</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313812</v>
+        <v>546.7760680313806</v>
       </c>
       <c r="O12" t="n">
-        <v>477.749043298737</v>
+        <v>477.7490432987364</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062172</v>
+        <v>363.9073766062168</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936567</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701852</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360915</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.570886811234</v>
+        <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882118</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765383</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190459</v>
+        <v>333.5494446190456</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410833</v>
+        <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998372</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>210.3443242916671</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946981</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>260.291358752781</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>45.87687150790109</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="O24" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525766</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>189.5729943876629</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>29.46586643587111</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M36" t="n">
-        <v>90.01966967203964</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>439.1903400640639</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>134.6960534463657</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>508.1286233929767</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
